--- a/Manual Testing/Projects/Project 4/Defect Report of woodland.xlsx
+++ b/Manual Testing/Projects/Project 4/Defect Report of woodland.xlsx
@@ -107,9 +107,8 @@
   <si>
     <t>1.Open Browser
 2.Open URL
-3.Click on Sign in
-4.Click on sign in
-5.Enter mobile number &amp; click on send OTP.</t>
+3.Click on sign in
+4.Enter mobile number &amp; click on send OTP.</t>
   </si>
 </sst>
 </file>
@@ -484,7 +483,7 @@
   <dimension ref="A2:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
